--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H2">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I2">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J2">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,22 +564,22 @@
         <v>4.402218</v>
       </c>
       <c r="O2">
-        <v>0.8178057326420413</v>
+        <v>0.864087546066766</v>
       </c>
       <c r="P2">
-        <v>0.8654277364307374</v>
+        <v>0.9050919696083439</v>
       </c>
       <c r="Q2">
-        <v>3.921297205454668</v>
+        <v>6.602275359033333</v>
       </c>
       <c r="R2">
-        <v>35.291674849092</v>
+        <v>59.4204782313</v>
       </c>
       <c r="S2">
-        <v>0.1749559117238328</v>
+        <v>0.5038029884702945</v>
       </c>
       <c r="T2">
-        <v>0.2284284272804118</v>
+        <v>0.5531877697487753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H3">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I3">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J3">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,33 +620,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.296209</v>
+        <v>0.2308085</v>
       </c>
       <c r="N3">
-        <v>0.592418</v>
+        <v>0.461617</v>
       </c>
       <c r="O3">
-        <v>0.1650813873325899</v>
+        <v>0.135912453933234</v>
       </c>
       <c r="P3">
-        <v>0.1164628759322743</v>
+        <v>0.09490803039165596</v>
       </c>
       <c r="Q3">
-        <v>0.7915488446486667</v>
+        <v>1.038472837241667</v>
       </c>
       <c r="R3">
-        <v>4.749293067892</v>
+        <v>6.230837023449999</v>
       </c>
       <c r="S3">
-        <v>0.03531641253736511</v>
+        <v>0.07924324424484155</v>
       </c>
       <c r="T3">
-        <v>0.0307402114190181</v>
+        <v>0.05800732237888274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.672264666666667</v>
+        <v>1.68559</v>
       </c>
       <c r="H4">
-        <v>8.016794000000001</v>
+        <v>5.05677</v>
       </c>
       <c r="I4">
-        <v>0.2139333398392942</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J4">
-        <v>0.2639485859587926</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.030706</v>
+        <v>1.467406</v>
       </c>
       <c r="N4">
-        <v>0.09211799999999999</v>
+        <v>4.402218</v>
       </c>
       <c r="O4">
-        <v>0.01711288002536893</v>
+        <v>0.864087546066766</v>
       </c>
       <c r="P4">
-        <v>0.01810938763698814</v>
+        <v>0.9050919696083439</v>
       </c>
       <c r="Q4">
-        <v>0.08205455885466667</v>
+        <v>2.47344487954</v>
       </c>
       <c r="R4">
-        <v>0.738491029692</v>
+        <v>22.26100391586</v>
       </c>
       <c r="S4">
-        <v>0.00366101557809632</v>
+        <v>0.1887423432625885</v>
       </c>
       <c r="T4">
-        <v>0.00477994725936266</v>
+        <v>0.2072436216458558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>5.05677</v>
       </c>
       <c r="I5">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J5">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.467406</v>
+        <v>0.2308085</v>
       </c>
       <c r="N5">
-        <v>4.402218</v>
+        <v>0.461617</v>
       </c>
       <c r="O5">
-        <v>0.8178057326420413</v>
+        <v>0.135912453933234</v>
       </c>
       <c r="P5">
-        <v>0.8654277364307374</v>
+        <v>0.09490803039165596</v>
       </c>
       <c r="Q5">
-        <v>2.473444879540001</v>
+        <v>0.389048499515</v>
       </c>
       <c r="R5">
-        <v>22.26100391586</v>
+        <v>2.33429099709</v>
       </c>
       <c r="S5">
-        <v>0.1103573081368595</v>
+        <v>0.02968731021607052</v>
       </c>
       <c r="T5">
-        <v>0.1440862791558281</v>
+        <v>0.02173158596264315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.269395</v>
+      </c>
+      <c r="H6">
+        <v>0.808185</v>
+      </c>
+      <c r="I6">
+        <v>0.03490994636826474</v>
+      </c>
+      <c r="J6">
+        <v>0.03659536189327867</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.68559</v>
-      </c>
-      <c r="H6">
-        <v>5.05677</v>
-      </c>
-      <c r="I6">
-        <v>0.1349431823867681</v>
-      </c>
-      <c r="J6">
-        <v>0.1664914042968852</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.296209</v>
+        <v>1.467406</v>
       </c>
       <c r="N6">
-        <v>0.592418</v>
+        <v>4.402218</v>
       </c>
       <c r="O6">
-        <v>0.1650813873325899</v>
+        <v>0.864087546066766</v>
       </c>
       <c r="P6">
-        <v>0.1164628759322743</v>
+        <v>0.9050919696083439</v>
       </c>
       <c r="Q6">
-        <v>0.49928692831</v>
+        <v>0.3953118393699999</v>
       </c>
       <c r="R6">
-        <v>2.99572156986</v>
+        <v>3.55780655433</v>
       </c>
       <c r="S6">
-        <v>0.02227660775948238</v>
+        <v>0.03016524989067628</v>
       </c>
       <c r="T6">
-        <v>0.01939006776241826</v>
+        <v>0.03312216817451772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.68559</v>
+        <v>0.269395</v>
       </c>
       <c r="H7">
-        <v>5.05677</v>
+        <v>0.808185</v>
       </c>
       <c r="I7">
-        <v>0.1349431823867681</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J7">
-        <v>0.1664914042968852</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.030706</v>
+        <v>0.2308085</v>
       </c>
       <c r="N7">
-        <v>0.09211799999999999</v>
+        <v>0.461617</v>
       </c>
       <c r="O7">
-        <v>0.01711288002536893</v>
+        <v>0.135912453933234</v>
       </c>
       <c r="P7">
-        <v>0.01810938763698814</v>
+        <v>0.09490803039165596</v>
       </c>
       <c r="Q7">
-        <v>0.05175772654</v>
+        <v>0.0621786558575</v>
       </c>
       <c r="R7">
-        <v>0.46581953886</v>
+        <v>0.373071935145</v>
       </c>
       <c r="S7">
-        <v>0.002309266490426239</v>
+        <v>0.004744696477588451</v>
       </c>
       <c r="T7">
-        <v>0.003015057378638807</v>
+        <v>0.00347319371876094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,22 +906,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5508483333333334</v>
+        <v>1.0662095</v>
       </c>
       <c r="H8">
-        <v>1.652545</v>
+        <v>2.132419</v>
       </c>
       <c r="I8">
-        <v>0.04409923356952</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J8">
-        <v>0.05440914609796297</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,27 +936,27 @@
         <v>4.402218</v>
       </c>
       <c r="O8">
-        <v>0.8178057326420413</v>
+        <v>0.864087546066766</v>
       </c>
       <c r="P8">
-        <v>0.8654277364307374</v>
+        <v>0.9050919696083439</v>
       </c>
       <c r="Q8">
-        <v>0.8083181494233336</v>
+        <v>1.564562217557</v>
       </c>
       <c r="R8">
-        <v>7.274863344810002</v>
+        <v>9.387373305341999</v>
       </c>
       <c r="S8">
-        <v>0.0360646060182738</v>
+        <v>0.1193877985980178</v>
       </c>
       <c r="T8">
-        <v>0.04708718414868938</v>
+        <v>0.08739377832617148</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,22 +968,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5508483333333334</v>
+        <v>1.0662095</v>
       </c>
       <c r="H9">
-        <v>1.652545</v>
+        <v>2.132419</v>
       </c>
       <c r="I9">
-        <v>0.04409923356952</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J9">
-        <v>0.05440914609796297</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.296209</v>
+        <v>0.2308085</v>
       </c>
       <c r="N9">
-        <v>0.592418</v>
+        <v>0.461617</v>
       </c>
       <c r="O9">
-        <v>0.1650813873325899</v>
+        <v>0.135912453933234</v>
       </c>
       <c r="P9">
-        <v>0.1164628759322743</v>
+        <v>0.09490803039165596</v>
       </c>
       <c r="Q9">
-        <v>0.1631662339683334</v>
+        <v>0.24609021538075</v>
       </c>
       <c r="R9">
-        <v>0.9789974038100001</v>
+        <v>0.9843608615230001</v>
       </c>
       <c r="S9">
-        <v>0.00727996265796028</v>
+        <v>0.01877852394818517</v>
       </c>
       <c r="T9">
-        <v>0.006336645631588047</v>
+        <v>0.009164119943535805</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,51 +1036,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.5508483333333334</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H10">
-        <v>1.652545</v>
+        <v>0.589132</v>
       </c>
       <c r="I10">
-        <v>0.04409923356952</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J10">
-        <v>0.05440914609796297</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.030706</v>
+        <v>1.467406</v>
       </c>
       <c r="N10">
-        <v>0.09211799999999999</v>
+        <v>4.402218</v>
       </c>
       <c r="O10">
-        <v>0.01711288002536893</v>
+        <v>0.864087546066766</v>
       </c>
       <c r="P10">
-        <v>0.01810938763698814</v>
+        <v>0.9050919696083439</v>
       </c>
       <c r="Q10">
-        <v>0.01691434892333333</v>
+        <v>0.2881652771973333</v>
       </c>
       <c r="R10">
-        <v>0.15222914031</v>
+        <v>2.593487494776</v>
       </c>
       <c r="S10">
-        <v>0.0007546648932859175</v>
+        <v>0.02198916584518879</v>
       </c>
       <c r="T10">
-        <v>0.0009853163176855321</v>
+        <v>0.02414463171302359</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1963773333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.589132</v>
+      </c>
+      <c r="I11">
+        <v>0.02544784489173709</v>
+      </c>
+      <c r="J11">
+        <v>0.02667644010085692</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>7.100768</v>
-      </c>
-      <c r="H11">
-        <v>14.201536</v>
-      </c>
-      <c r="I11">
-        <v>0.5684657783388168</v>
-      </c>
-      <c r="J11">
-        <v>0.4675778553924284</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.467406</v>
+        <v>0.2308085</v>
       </c>
       <c r="N11">
-        <v>4.402218</v>
+        <v>0.461617</v>
       </c>
       <c r="O11">
-        <v>0.8178057326420413</v>
+        <v>0.135912453933234</v>
       </c>
       <c r="P11">
-        <v>0.8654277364307374</v>
+        <v>0.09490803039165596</v>
       </c>
       <c r="Q11">
-        <v>10.419709567808</v>
+        <v>0.04532555774066666</v>
       </c>
       <c r="R11">
-        <v>62.51825740684801</v>
+        <v>0.271953346444</v>
       </c>
       <c r="S11">
-        <v>0.4648945723363043</v>
+        <v>0.003458679046548301</v>
       </c>
       <c r="T11">
-        <v>0.404654844997408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>7.100768</v>
-      </c>
-      <c r="H12">
-        <v>14.201536</v>
-      </c>
-      <c r="I12">
-        <v>0.5684657783388168</v>
-      </c>
-      <c r="J12">
-        <v>0.4675778553924284</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.296209</v>
-      </c>
-      <c r="N12">
-        <v>0.592418</v>
-      </c>
-      <c r="O12">
-        <v>0.1650813873325899</v>
-      </c>
-      <c r="P12">
-        <v>0.1164628759322743</v>
-      </c>
-      <c r="Q12">
-        <v>2.103311388512</v>
-      </c>
-      <c r="R12">
-        <v>8.413245554048</v>
-      </c>
-      <c r="S12">
-        <v>0.0938431193392724</v>
-      </c>
-      <c r="T12">
-        <v>0.05445546176124728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>7.100768</v>
-      </c>
-      <c r="H13">
-        <v>14.201536</v>
-      </c>
-      <c r="I13">
-        <v>0.5684657783388168</v>
-      </c>
-      <c r="J13">
-        <v>0.4675778553924284</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.030706</v>
-      </c>
-      <c r="N13">
-        <v>0.09211799999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.01711288002536893</v>
-      </c>
-      <c r="P13">
-        <v>0.01810938763698814</v>
-      </c>
-      <c r="Q13">
-        <v>0.218036182208</v>
-      </c>
-      <c r="R13">
-        <v>1.308217093248</v>
-      </c>
-      <c r="S13">
-        <v>0.009728086663240139</v>
-      </c>
-      <c r="T13">
-        <v>0.008467548633773072</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.481638</v>
-      </c>
-      <c r="H14">
-        <v>1.444914</v>
-      </c>
-      <c r="I14">
-        <v>0.03855846586560088</v>
-      </c>
-      <c r="J14">
-        <v>0.04757300825393079</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1.467406</v>
-      </c>
-      <c r="N14">
-        <v>4.402218</v>
-      </c>
-      <c r="O14">
-        <v>0.8178057326420413</v>
-      </c>
-      <c r="P14">
-        <v>0.8654277364307374</v>
-      </c>
-      <c r="Q14">
-        <v>0.7067584910280001</v>
-      </c>
-      <c r="R14">
-        <v>6.360826419252001</v>
-      </c>
-      <c r="S14">
-        <v>0.03153333442677087</v>
-      </c>
-      <c r="T14">
-        <v>0.04117100084840011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.481638</v>
-      </c>
-      <c r="H15">
-        <v>1.444914</v>
-      </c>
-      <c r="I15">
-        <v>0.03855846586560088</v>
-      </c>
-      <c r="J15">
-        <v>0.04757300825393079</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.296209</v>
-      </c>
-      <c r="N15">
-        <v>0.592418</v>
-      </c>
-      <c r="O15">
-        <v>0.1650813873325899</v>
-      </c>
-      <c r="P15">
-        <v>0.1164628759322743</v>
-      </c>
-      <c r="Q15">
-        <v>0.142665510342</v>
-      </c>
-      <c r="R15">
-        <v>0.855993062052</v>
-      </c>
-      <c r="S15">
-        <v>0.006365285038509704</v>
-      </c>
-      <c r="T15">
-        <v>0.005540489358002602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.481638</v>
-      </c>
-      <c r="H16">
-        <v>1.444914</v>
-      </c>
-      <c r="I16">
-        <v>0.03855846586560088</v>
-      </c>
-      <c r="J16">
-        <v>0.04757300825393079</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.030706</v>
-      </c>
-      <c r="N16">
-        <v>0.09211799999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.01711288002536893</v>
-      </c>
-      <c r="P16">
-        <v>0.01810938763698814</v>
-      </c>
-      <c r="Q16">
-        <v>0.014789176428</v>
-      </c>
-      <c r="R16">
-        <v>0.133102587852</v>
-      </c>
-      <c r="S16">
-        <v>0.0006598464003203109</v>
-      </c>
-      <c r="T16">
-        <v>0.0008615180475280691</v>
+        <v>0.002531808387833318</v>
       </c>
     </row>
   </sheetData>
